--- a/Investment/已整理策略/策略/玩股成金/所有机器人对比.xlsx
+++ b/Investment/已整理策略/策略/玩股成金/所有机器人对比.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="156">
   <si>
     <t>机器人ID</t>
   </si>
@@ -64,177 +64,177 @@
     <t>创建时间</t>
   </si>
   <si>
+    <t>89c1be35-08a6-47f6-a8c9-1c64b405dab6</t>
+  </si>
+  <si>
     <t>8afec86a-e573-411a-853f-5a9a044d89ae</t>
   </si>
   <si>
-    <t>89c1be35-08a6-47f6-a8c9-1c64b405dab6</t>
-  </si>
-  <si>
     <t>ca2d654c-ab95-448e-9588-cbc89cbb7a9e</t>
   </si>
   <si>
+    <t>242cd2a3-a305-44e7-bdde-0aaa7c5f2b1b</t>
+  </si>
+  <si>
     <t>2a0b64e6-e440-4c00-964c-f378c634b454</t>
   </si>
   <si>
-    <t>242cd2a3-a305-44e7-bdde-0aaa7c5f2b1b</t>
-  </si>
-  <si>
     <t>2db102b3-2d79-4f8a-bc0e-00a2d36723ec</t>
   </si>
   <si>
+    <t>5e347f16-cc52-47f7-b87d-5582ffeb1e58</t>
+  </si>
+  <si>
+    <t>5d5c3506-6b53-41e2-896a-e72b9072ff35</t>
+  </si>
+  <si>
     <t>03d6704f-9f38-4932-885b-4e0f7257a34b</t>
   </si>
   <si>
-    <t>5d5c3506-6b53-41e2-896a-e72b9072ff35</t>
+    <t>2ebb759b-577c-4389-bf2d-7ec65eeff863</t>
   </si>
   <si>
     <t>1414e3cb-f504-43a5-9379-30facb88d569</t>
   </si>
   <si>
-    <t>5e347f16-cc52-47f7-b87d-5582ffeb1e58</t>
-  </si>
-  <si>
     <t>9c589615-d8d5-4d36-aaa5-6eb7c880f7d0</t>
   </si>
   <si>
     <t>a2d7f9a3-5bfa-4464-836f-bca847cc4870</t>
   </si>
   <si>
-    <t>2ebb759b-577c-4389-bf2d-7ec65eeff863</t>
-  </si>
-  <si>
     <t>07c446b4-3b95-4e62-88bb-bc56c8372bbf</t>
   </si>
   <si>
+    <t>f2b59ed0-043b-4c16-87d7-07b596a966d7</t>
+  </si>
+  <si>
+    <t>2fde67a6-39df-49f2-abd7-a4db72b40897</t>
+  </si>
+  <si>
+    <t>a4e2dfa4-5dcd-4285-aae0-40fa44f0524b</t>
+  </si>
+  <si>
+    <t>6fb5de25-2204-4e94-89d7-e7b60a01ab36</t>
+  </si>
+  <si>
+    <t>bb29d58b-7c6a-4070-8462-941452b8c550</t>
+  </si>
+  <si>
+    <t>85dffa6b-096c-493d-acb5-76af49afedc5</t>
+  </si>
+  <si>
+    <t>2d12642f-5b40-4f23-aa22-4e91c8005ba5</t>
+  </si>
+  <si>
+    <t>e1c303d6-eca0-4fa7-bce2-a1886d1fcc9e</t>
+  </si>
+  <si>
+    <t>32d323ff-dcd7-4167-a36c-a581fba8b2d4</t>
+  </si>
+  <si>
     <t>4cd04aa1-d467-4b9a-8de0-abcf977ea01a</t>
   </si>
   <si>
-    <t>f2b59ed0-043b-4c16-87d7-07b596a966d7</t>
-  </si>
-  <si>
-    <t>a4e2dfa4-5dcd-4285-aae0-40fa44f0524b</t>
-  </si>
-  <si>
-    <t>2fde67a6-39df-49f2-abd7-a4db72b40897</t>
-  </si>
-  <si>
-    <t>6fb5de25-2204-4e94-89d7-e7b60a01ab36</t>
-  </si>
-  <si>
-    <t>e1c303d6-eca0-4fa7-bce2-a1886d1fcc9e</t>
-  </si>
-  <si>
-    <t>bb29d58b-7c6a-4070-8462-941452b8c550</t>
-  </si>
-  <si>
-    <t>85dffa6b-096c-493d-acb5-76af49afedc5</t>
+    <t>a2e52686-fdf9-43a0-94aa-3406a5036aab</t>
+  </si>
+  <si>
+    <t>5deeeb6a-10f6-49d6-b735-20527142fe34</t>
+  </si>
+  <si>
+    <t>eca269cb-7b95-4dde-a160-5c9e0361dc1f</t>
   </si>
   <si>
     <t>6ba58bef-4c45-421f-b0b4-5d9a5d1f138b</t>
   </si>
   <si>
-    <t>5deeeb6a-10f6-49d6-b735-20527142fe34</t>
-  </si>
-  <si>
-    <t>a2e52686-fdf9-43a0-94aa-3406a5036aab</t>
-  </si>
-  <si>
-    <t>2d12642f-5b40-4f23-aa22-4e91c8005ba5</t>
-  </si>
-  <si>
-    <t>32d323ff-dcd7-4167-a36c-a581fba8b2d4</t>
-  </si>
-  <si>
-    <t>eca269cb-7b95-4dde-a160-5c9e0361dc1f</t>
-  </si>
-  <si>
     <t>a075bddb-ead8-4acc-8fa1-da156ad5f061</t>
   </si>
   <si>
+    <t>7d996d7a-0ba2-4574-bcb6-22cc9f1e900e</t>
+  </si>
+  <si>
+    <t>748b11c7-6ef3-407a-b8ed-876e508b1f83</t>
+  </si>
+  <si>
+    <t>1d80e749-a45e-4b38-86e6-4c011f4962cd</t>
+  </si>
+  <si>
+    <t>0284ee30-34b8-4335-a403-a1ed69e08d40</t>
+  </si>
+  <si>
+    <t>e815a438-f1c8-4056-8e88-42aa7e74d758</t>
+  </si>
+  <si>
+    <t>90001</t>
+  </si>
+  <si>
     <t>75f8af56-d0c7-4b3d-837d-f2104936f851</t>
   </si>
   <si>
-    <t>1d80e749-a45e-4b38-86e6-4c011f4962cd</t>
-  </si>
-  <si>
-    <t>748b11c7-6ef3-407a-b8ed-876e508b1f83</t>
-  </si>
-  <si>
-    <t>e815a438-f1c8-4056-8e88-42aa7e74d758</t>
-  </si>
-  <si>
-    <t>0284ee30-34b8-4335-a403-a1ed69e08d40</t>
-  </si>
-  <si>
     <t>a2d3f740-1281-486c-8adf-bfef9bd295e2</t>
   </si>
   <si>
-    <t>7d996d7a-0ba2-4574-bcb6-22cc9f1e900e</t>
-  </si>
-  <si>
-    <t>90001</t>
+    <t>91d10954-623e-479a-bdaf-8f11f06bcdd2</t>
+  </si>
+  <si>
+    <t>eac34fd6-3008-4a4e-b27b-753c77c84092</t>
+  </si>
+  <si>
+    <t>1094edb5-5e81-4b17-9205-065b55024731</t>
   </si>
   <si>
     <t>14782f44-8b19-4da6-80b7-72debbaef859</t>
   </si>
   <si>
-    <t>91d10954-623e-479a-bdaf-8f11f06bcdd2</t>
-  </si>
-  <si>
-    <t>1094edb5-5e81-4b17-9205-065b55024731</t>
-  </si>
-  <si>
-    <t>eac34fd6-3008-4a4e-b27b-753c77c84092</t>
+    <t>13450b18-1df4-495e-a45a-f27428c16ae3</t>
   </si>
   <si>
     <t>07f7ad82-bbe1-4712-a6ef-ba709c3fda45</t>
   </si>
   <si>
+    <t>60999177-66a5-4c28-9314-4463768acfcd</t>
+  </si>
+  <si>
+    <t>723636f1-5314-4613-b4e2-1131670325da</t>
+  </si>
+  <si>
+    <t>d195a83f-8864-4462-ab1f-7470f454cc4d</t>
+  </si>
+  <si>
+    <t>4a106553-8b07-477d-a06e-92f0d2bd434c</t>
+  </si>
+  <si>
+    <t>2a25a01e-1496-40f7-9c80-75daf2b6d16c</t>
+  </si>
+  <si>
+    <t>04cd883d-5b24-47d5-92ff-0116058c994b</t>
+  </si>
+  <si>
+    <t>86cda13b-a6ec-4512-9de3-d9063f642157</t>
+  </si>
+  <si>
+    <t>9a5c385b-d9c2-4bef-b5a9-ce0dc75013fe</t>
+  </si>
+  <si>
+    <t>a1994541-c2e6-46a5-907c-ed629139c1ef</t>
+  </si>
+  <si>
+    <t>f5667606-bb62-4e79-8af6-e45551835c22</t>
+  </si>
+  <si>
     <t>4540a9d0-465e-467f-ad94-d1314272d61f</t>
   </si>
   <si>
-    <t>60999177-66a5-4c28-9314-4463768acfcd</t>
-  </si>
-  <si>
-    <t>f5667606-bb62-4e79-8af6-e45551835c22</t>
-  </si>
-  <si>
-    <t>2a25a01e-1496-40f7-9c80-75daf2b6d16c</t>
-  </si>
-  <si>
-    <t>4a106553-8b07-477d-a06e-92f0d2bd434c</t>
-  </si>
-  <si>
-    <t>04cd883d-5b24-47d5-92ff-0116058c994b</t>
-  </si>
-  <si>
-    <t>86cda13b-a6ec-4512-9de3-d9063f642157</t>
-  </si>
-  <si>
-    <t>9a5c385b-d9c2-4bef-b5a9-ce0dc75013fe</t>
-  </si>
-  <si>
-    <t>a1994541-c2e6-46a5-907c-ed629139c1ef</t>
-  </si>
-  <si>
-    <t>723636f1-5314-4613-b4e2-1131670325da</t>
-  </si>
-  <si>
     <t>3149ff09-167d-47d3-b93d-056b2bb0926e</t>
   </si>
   <si>
-    <t>13450b18-1df4-495e-a45a-f27428c16ae3</t>
+    <t>59d0abdc-d1a7-4724-8db6-4f930efab7d4</t>
   </si>
   <si>
     <t>41b74751-5817-441b-91e8-c941379f2c3a</t>
   </si>
   <si>
-    <t>59d0abdc-d1a7-4724-8db6-4f930efab7d4</t>
-  </si>
-  <si>
-    <t>d195a83f-8864-4462-ab1f-7470f454cc4d</t>
-  </si>
-  <si>
     <t>c5fa581e-4af3-4be3-9d38-3992821ba7ed</t>
   </si>
   <si>
@@ -250,177 +250,177 @@
     <t>9a09cbd9-be78-469c-b3d2-b2d07ad50862</t>
   </si>
   <si>
+    <t>钢铁</t>
+  </si>
+  <si>
     <t>有色金属</t>
   </si>
   <si>
-    <t>钢铁</t>
-  </si>
-  <si>
     <t>建筑行业</t>
   </si>
   <si>
+    <t>运输服务</t>
+  </si>
+  <si>
     <t>IT设备</t>
   </si>
   <si>
-    <t>运输服务</t>
-  </si>
-  <si>
     <t>公共交通</t>
   </si>
   <si>
+    <t>农林牧渔</t>
+  </si>
+  <si>
+    <t>食品饮料</t>
+  </si>
+  <si>
     <t>商业连锁</t>
   </si>
   <si>
-    <t>食品饮料</t>
+    <t>广告包装</t>
   </si>
   <si>
     <t>煤炭</t>
   </si>
   <si>
-    <t>农林牧渔</t>
-  </si>
-  <si>
     <t>化纤</t>
   </si>
   <si>
     <t>航空</t>
   </si>
   <si>
-    <t>广告包装</t>
-  </si>
-  <si>
     <t>天然气</t>
   </si>
   <si>
+    <t>通用机械</t>
+  </si>
+  <si>
+    <t>石油</t>
+  </si>
+  <si>
+    <t>化学制药</t>
+  </si>
+  <si>
+    <t>运输设备</t>
+  </si>
+  <si>
+    <t>交通设施</t>
+  </si>
+  <si>
+    <t>环境保护</t>
+  </si>
+  <si>
+    <t>纺织服饰</t>
+  </si>
+  <si>
+    <t>房地产</t>
+  </si>
+  <si>
+    <t>医疗保健</t>
+  </si>
+  <si>
     <t>软件服务</t>
   </si>
   <si>
-    <t>通用机械</t>
-  </si>
-  <si>
-    <t>化学制药</t>
-  </si>
-  <si>
-    <t>石油</t>
-  </si>
-  <si>
-    <t>运输设备</t>
-  </si>
-  <si>
-    <t>房地产</t>
-  </si>
-  <si>
-    <t>交通设施</t>
-  </si>
-  <si>
-    <t>环境保护</t>
+    <t>文教休闲</t>
+  </si>
+  <si>
+    <t>造纸印刷</t>
+  </si>
+  <si>
+    <t>银行</t>
   </si>
   <si>
     <t>酒店</t>
   </si>
   <si>
-    <t>造纸印刷</t>
-  </si>
-  <si>
-    <t>文教休闲</t>
-  </si>
-  <si>
-    <t>纺织服饰</t>
-  </si>
-  <si>
-    <t>医疗保健</t>
-  </si>
-  <si>
-    <t>银行</t>
-  </si>
-  <si>
     <t>工业机械</t>
   </si>
   <si>
+    <t>仓储物流</t>
+  </si>
+  <si>
+    <t>旅游</t>
+  </si>
+  <si>
+    <t>证券</t>
+  </si>
+  <si>
+    <t>家用电器</t>
+  </si>
+  <si>
+    <t>汽车</t>
+  </si>
+  <si>
+    <t>电力</t>
+  </si>
+  <si>
     <t>矿物制品</t>
   </si>
   <si>
-    <t>证券</t>
-  </si>
-  <si>
-    <t>旅游</t>
-  </si>
-  <si>
-    <t>汽车</t>
-  </si>
-  <si>
-    <t>家用电器</t>
-  </si>
-  <si>
     <t>保险</t>
   </si>
   <si>
-    <t>仓储物流</t>
-  </si>
-  <si>
-    <t>电力</t>
+    <t>水务</t>
+  </si>
+  <si>
+    <t>船舶</t>
+  </si>
+  <si>
+    <t>综合类</t>
   </si>
   <si>
     <t>电气设备</t>
   </si>
   <si>
-    <t>水务</t>
-  </si>
-  <si>
-    <t>综合类</t>
-  </si>
-  <si>
-    <t>船舶</t>
+    <t>传媒娱乐</t>
   </si>
   <si>
     <t>工程机械</t>
   </si>
   <si>
+    <t>美容护理</t>
+  </si>
+  <si>
+    <t>互联网</t>
+  </si>
+  <si>
+    <t>家居用品</t>
+  </si>
+  <si>
+    <t>一带一路</t>
+  </si>
+  <si>
+    <t>科创版</t>
+  </si>
+  <si>
+    <t>电池</t>
+  </si>
+  <si>
+    <t>医疗器械</t>
+  </si>
+  <si>
+    <t>中药</t>
+  </si>
+  <si>
+    <t>专用设备</t>
+  </si>
+  <si>
+    <t>半导体</t>
+  </si>
+  <si>
     <t>元器件</t>
   </si>
   <si>
-    <t>美容护理</t>
-  </si>
-  <si>
-    <t>半导体</t>
-  </si>
-  <si>
-    <t>科创版</t>
-  </si>
-  <si>
-    <t>一带一路</t>
-  </si>
-  <si>
-    <t>电池</t>
-  </si>
-  <si>
-    <t>医疗器械</t>
-  </si>
-  <si>
-    <t>中药</t>
-  </si>
-  <si>
-    <t>专用设备</t>
-  </si>
-  <si>
-    <t>互联网</t>
-  </si>
-  <si>
     <t>电信运营</t>
   </si>
   <si>
-    <t>传媒娱乐</t>
+    <t>多元金融</t>
   </si>
   <si>
     <t>商贸代理</t>
   </si>
   <si>
-    <t>多元金融</t>
-  </si>
-  <si>
-    <t>家居用品</t>
-  </si>
-  <si>
     <t>酿酒</t>
   </si>
   <si>
@@ -436,16 +436,19 @@
     <t>医药</t>
   </si>
   <si>
-    <t>2025-09-16</t>
-  </si>
-  <si>
-    <t>2025-09-12</t>
-  </si>
-  <si>
-    <t>2025-09-15</t>
-  </si>
-  <si>
-    <t>2025-09-10</t>
+    <t>2025-11-13</t>
+  </si>
+  <si>
+    <t>2025-11-14</t>
+  </si>
+  <si>
+    <t>2025-11-12</t>
+  </si>
+  <si>
+    <t>2025-11-05</t>
+  </si>
+  <si>
+    <t>2025-11-11</t>
   </si>
   <si>
     <t>2020-07-01</t>
@@ -454,10 +457,10 @@
     <t>2022-05-31</t>
   </si>
   <si>
+    <t>2020-01-07</t>
+  </si>
+  <si>
     <t>2019-12-17</t>
-  </si>
-  <si>
-    <t>2020-01-07</t>
   </si>
   <si>
     <t>2020-02-27</t>
@@ -900,31 +903,31 @@
         <v>78</v>
       </c>
       <c r="C2">
-        <v>264784</v>
+        <v>298731</v>
       </c>
       <c r="D2">
-        <v>264.78</v>
+        <v>298.73</v>
       </c>
       <c r="E2">
-        <v>0.73</v>
+        <v>-0.47</v>
       </c>
       <c r="F2">
-        <v>364784</v>
+        <v>398731</v>
       </c>
       <c r="G2">
-        <v>120686</v>
+        <v>135601</v>
       </c>
       <c r="H2">
-        <v>368670</v>
+        <v>395812</v>
       </c>
       <c r="I2">
-        <v>278364</v>
+        <v>247819</v>
       </c>
       <c r="J2">
         <v>100000</v>
       </c>
       <c r="K2">
-        <v>244098</v>
+        <v>263130</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -939,7 +942,7 @@
         <v>140</v>
       </c>
       <c r="P2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -950,31 +953,31 @@
         <v>79</v>
       </c>
       <c r="C3">
-        <v>262394</v>
+        <v>254992</v>
       </c>
       <c r="D3">
-        <v>262.39</v>
+        <v>254.99</v>
       </c>
       <c r="E3">
-        <v>0.66</v>
+        <v>-1.89</v>
       </c>
       <c r="F3">
-        <v>362394</v>
+        <v>354992</v>
       </c>
       <c r="G3">
-        <v>120084</v>
+        <v>4460</v>
       </c>
       <c r="H3">
-        <v>332957</v>
+        <v>362185</v>
       </c>
       <c r="I3">
-        <v>247819</v>
+        <v>278364</v>
       </c>
       <c r="J3">
         <v>100000</v>
       </c>
       <c r="K3">
-        <v>242310</v>
+        <v>350532</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -986,10 +989,10 @@
         <v>0.01</v>
       </c>
       <c r="O3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1000,22 +1003,22 @@
         <v>80</v>
       </c>
       <c r="C4">
-        <v>207545</v>
+        <v>209899</v>
       </c>
       <c r="D4">
-        <v>207.55</v>
+        <v>209.9</v>
       </c>
       <c r="E4">
-        <v>1.29</v>
+        <v>0.85</v>
       </c>
       <c r="F4">
-        <v>307545</v>
+        <v>309899</v>
       </c>
       <c r="G4">
-        <v>92102</v>
+        <v>1032</v>
       </c>
       <c r="H4">
-        <v>271970</v>
+        <v>300554</v>
       </c>
       <c r="I4">
         <v>183388</v>
@@ -1024,7 +1027,7 @@
         <v>100000</v>
       </c>
       <c r="K4">
-        <v>215443</v>
+        <v>308867</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -1036,10 +1039,10 @@
         <v>0.01</v>
       </c>
       <c r="O4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1050,31 +1053,31 @@
         <v>81</v>
       </c>
       <c r="C5">
-        <v>148416</v>
+        <v>138187</v>
       </c>
       <c r="D5">
-        <v>148.42</v>
+        <v>138.19</v>
       </c>
       <c r="E5">
-        <v>5.8</v>
+        <v>0.26</v>
       </c>
       <c r="F5">
-        <v>248416</v>
+        <v>238187</v>
       </c>
       <c r="G5">
-        <v>257</v>
+        <v>302</v>
       </c>
       <c r="H5">
-        <v>226377</v>
+        <v>228512</v>
       </c>
       <c r="I5">
-        <v>229629</v>
+        <v>212896</v>
       </c>
       <c r="J5">
         <v>100000</v>
       </c>
       <c r="K5">
-        <v>248159</v>
+        <v>237885</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1086,10 +1089,10 @@
         <v>0.01</v>
       </c>
       <c r="O5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P5" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1100,31 +1103,31 @@
         <v>82</v>
       </c>
       <c r="C6">
-        <v>139983</v>
+        <v>124887</v>
       </c>
       <c r="D6">
-        <v>139.98</v>
+        <v>124.89</v>
       </c>
       <c r="E6">
-        <v>-2.01</v>
+        <v>2.56</v>
       </c>
       <c r="F6">
-        <v>239983</v>
+        <v>224887</v>
       </c>
       <c r="G6">
-        <v>142414</v>
+        <v>143083</v>
       </c>
       <c r="H6">
-        <v>223118</v>
+        <v>229555</v>
       </c>
       <c r="I6">
-        <v>212896</v>
+        <v>229629</v>
       </c>
       <c r="J6">
         <v>100000</v>
       </c>
       <c r="K6">
-        <v>97569</v>
+        <v>81804</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1136,10 +1139,10 @@
         <v>0.01</v>
       </c>
       <c r="O6" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P6" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1150,22 +1153,22 @@
         <v>83</v>
       </c>
       <c r="C7">
-        <v>125953</v>
+        <v>120997</v>
       </c>
       <c r="D7">
-        <v>125.95</v>
+        <v>121</v>
       </c>
       <c r="E7">
-        <v>3.46</v>
+        <v>1.89</v>
       </c>
       <c r="F7">
-        <v>225953</v>
+        <v>220997</v>
       </c>
       <c r="G7">
-        <v>71425</v>
+        <v>146592</v>
       </c>
       <c r="H7">
-        <v>214406</v>
+        <v>219778</v>
       </c>
       <c r="I7">
         <v>151724</v>
@@ -1174,7 +1177,7 @@
         <v>100000</v>
       </c>
       <c r="K7">
-        <v>154528</v>
+        <v>74405</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1186,10 +1189,10 @@
         <v>0.01</v>
       </c>
       <c r="O7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="P7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1200,31 +1203,31 @@
         <v>84</v>
       </c>
       <c r="C8">
-        <v>120019</v>
+        <v>112522</v>
       </c>
       <c r="D8">
-        <v>120.02</v>
+        <v>112.52</v>
       </c>
       <c r="E8">
-        <v>3.44</v>
+        <v>-0.62</v>
       </c>
       <c r="F8">
-        <v>220019</v>
+        <v>212522</v>
       </c>
       <c r="G8">
-        <v>69674</v>
+        <v>72618</v>
       </c>
       <c r="H8">
-        <v>218124</v>
+        <v>200286</v>
       </c>
       <c r="I8">
-        <v>190748</v>
+        <v>165613</v>
       </c>
       <c r="J8">
         <v>100000</v>
       </c>
       <c r="K8">
-        <v>150345</v>
+        <v>139904</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1236,10 +1239,10 @@
         <v>0.01</v>
       </c>
       <c r="O8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P8" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1250,22 +1253,22 @@
         <v>85</v>
       </c>
       <c r="C9">
-        <v>111062</v>
+        <v>107749</v>
       </c>
       <c r="D9">
-        <v>111.06</v>
+        <v>107.75</v>
       </c>
       <c r="E9">
-        <v>-0.97</v>
+        <v>-1.04</v>
       </c>
       <c r="F9">
-        <v>211062</v>
+        <v>207749</v>
       </c>
       <c r="G9">
-        <v>69176</v>
+        <v>69755</v>
       </c>
       <c r="H9">
-        <v>216744</v>
+        <v>210250</v>
       </c>
       <c r="I9">
         <v>187934</v>
@@ -1274,7 +1277,7 @@
         <v>100000</v>
       </c>
       <c r="K9">
-        <v>141886</v>
+        <v>137994</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1289,7 +1292,7 @@
         <v>140</v>
       </c>
       <c r="P9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1300,31 +1303,31 @@
         <v>86</v>
       </c>
       <c r="C10">
-        <v>95622</v>
+        <v>106019</v>
       </c>
       <c r="D10">
-        <v>95.62</v>
+        <v>106.02</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>195622</v>
+        <v>206019</v>
       </c>
       <c r="G10">
-        <v>130526</v>
+        <v>137958</v>
       </c>
       <c r="H10">
-        <v>192624</v>
+        <v>205475</v>
       </c>
       <c r="I10">
-        <v>176431</v>
+        <v>190748</v>
       </c>
       <c r="J10">
         <v>100000</v>
       </c>
       <c r="K10">
-        <v>65096</v>
+        <v>68061</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1336,10 +1339,10 @@
         <v>0.01</v>
       </c>
       <c r="O10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1350,31 +1353,31 @@
         <v>87</v>
       </c>
       <c r="C11">
-        <v>94480</v>
+        <v>105889</v>
       </c>
       <c r="D11">
-        <v>94.48</v>
+        <v>105.89</v>
       </c>
       <c r="E11">
-        <v>-1.04</v>
+        <v>-0.41</v>
       </c>
       <c r="F11">
-        <v>194480</v>
+        <v>205889</v>
       </c>
       <c r="G11">
-        <v>3736</v>
+        <v>68528</v>
       </c>
       <c r="H11">
-        <v>195000</v>
+        <v>199782</v>
       </c>
       <c r="I11">
-        <v>165613</v>
+        <v>176688</v>
       </c>
       <c r="J11">
         <v>100000</v>
       </c>
       <c r="K11">
-        <v>190744</v>
+        <v>137361</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1389,7 +1392,7 @@
         <v>142</v>
       </c>
       <c r="P11" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1400,31 +1403,31 @@
         <v>88</v>
       </c>
       <c r="C12">
-        <v>92244</v>
+        <v>103331</v>
       </c>
       <c r="D12">
-        <v>92.23999999999999</v>
+        <v>103.33</v>
       </c>
       <c r="E12">
-        <v>0.3</v>
+        <v>9.98</v>
       </c>
       <c r="F12">
-        <v>192244</v>
+        <v>203331</v>
       </c>
       <c r="G12">
-        <v>128362</v>
+        <v>129309</v>
       </c>
       <c r="H12">
-        <v>188316</v>
+        <v>198357</v>
       </c>
       <c r="I12">
-        <v>147913</v>
+        <v>176431</v>
       </c>
       <c r="J12">
         <v>100000</v>
       </c>
       <c r="K12">
-        <v>63882</v>
+        <v>74022</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1439,7 +1442,7 @@
         <v>140</v>
       </c>
       <c r="P12" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1450,31 +1453,31 @@
         <v>89</v>
       </c>
       <c r="C13">
-        <v>85405</v>
+        <v>93828</v>
       </c>
       <c r="D13">
-        <v>85.41</v>
+        <v>93.83</v>
       </c>
       <c r="E13">
-        <v>-1.15</v>
+        <v>-0.68</v>
       </c>
       <c r="F13">
-        <v>185405</v>
+        <v>193828</v>
       </c>
       <c r="G13">
-        <v>122420</v>
+        <v>127762</v>
       </c>
       <c r="H13">
-        <v>185987</v>
+        <v>192837</v>
       </c>
       <c r="I13">
-        <v>160454</v>
+        <v>147913</v>
       </c>
       <c r="J13">
         <v>100000</v>
       </c>
       <c r="K13">
-        <v>62985</v>
+        <v>66066</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1489,7 +1492,7 @@
         <v>140</v>
       </c>
       <c r="P13" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1500,31 +1503,31 @@
         <v>90</v>
       </c>
       <c r="C14">
-        <v>84280</v>
+        <v>84251</v>
       </c>
       <c r="D14">
-        <v>84.28</v>
+        <v>84.25</v>
       </c>
       <c r="E14">
-        <v>0.53</v>
+        <v>0.42</v>
       </c>
       <c r="F14">
-        <v>184280</v>
+        <v>184251</v>
       </c>
       <c r="G14">
-        <v>62672</v>
+        <v>57399</v>
       </c>
       <c r="H14">
-        <v>186735</v>
+        <v>188162</v>
       </c>
       <c r="I14">
-        <v>176688</v>
+        <v>160454</v>
       </c>
       <c r="J14">
         <v>100000</v>
       </c>
       <c r="K14">
-        <v>121608</v>
+        <v>126852</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1539,7 +1542,7 @@
         <v>140</v>
       </c>
       <c r="P14" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1550,22 +1553,22 @@
         <v>91</v>
       </c>
       <c r="C15">
-        <v>73402</v>
+        <v>82154</v>
       </c>
       <c r="D15">
-        <v>73.40000000000001</v>
+        <v>82.15000000000001</v>
       </c>
       <c r="E15">
-        <v>-0.53</v>
+        <v>2.75</v>
       </c>
       <c r="F15">
-        <v>173402</v>
+        <v>182154</v>
       </c>
       <c r="G15">
-        <v>115976</v>
+        <v>59734</v>
       </c>
       <c r="H15">
-        <v>172486</v>
+        <v>181264</v>
       </c>
       <c r="I15">
         <v>142553</v>
@@ -1574,7 +1577,7 @@
         <v>100000</v>
       </c>
       <c r="K15">
-        <v>57426</v>
+        <v>122420</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1586,10 +1589,10 @@
         <v>0.01</v>
       </c>
       <c r="O15" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P15" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1600,31 +1603,31 @@
         <v>92</v>
       </c>
       <c r="C16">
-        <v>73329</v>
+        <v>71621</v>
       </c>
       <c r="D16">
-        <v>73.33</v>
+        <v>71.62</v>
       </c>
       <c r="E16">
-        <v>4.98</v>
+        <v>-0.65</v>
       </c>
       <c r="F16">
-        <v>173329</v>
+        <v>171621</v>
       </c>
       <c r="G16">
-        <v>60436</v>
+        <v>110581</v>
       </c>
       <c r="H16">
-        <v>179187</v>
+        <v>172804</v>
       </c>
       <c r="I16">
-        <v>170464</v>
+        <v>102439</v>
       </c>
       <c r="J16">
         <v>100000</v>
       </c>
       <c r="K16">
-        <v>112893</v>
+        <v>61040</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1639,7 +1642,7 @@
         <v>140</v>
       </c>
       <c r="P16" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1650,31 +1653,31 @@
         <v>93</v>
       </c>
       <c r="C17">
-        <v>67225</v>
+        <v>69320</v>
       </c>
       <c r="D17">
-        <v>67.22</v>
+        <v>69.31999999999999</v>
       </c>
       <c r="E17">
-        <v>2.24</v>
+        <v>2.12</v>
       </c>
       <c r="F17">
-        <v>167225</v>
+        <v>169320</v>
       </c>
       <c r="G17">
-        <v>1452</v>
+        <v>31</v>
       </c>
       <c r="H17">
-        <v>160412</v>
+        <v>166168</v>
       </c>
       <c r="I17">
-        <v>102439</v>
+        <v>123187</v>
       </c>
       <c r="J17">
         <v>100000</v>
       </c>
       <c r="K17">
-        <v>165773</v>
+        <v>169289</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1686,10 +1689,10 @@
         <v>0.01</v>
       </c>
       <c r="O17" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P17" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1700,22 +1703,22 @@
         <v>94</v>
       </c>
       <c r="C18">
-        <v>63846</v>
+        <v>68390</v>
       </c>
       <c r="D18">
-        <v>63.85</v>
+        <v>68.39</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="F18">
-        <v>163846</v>
+        <v>168390</v>
       </c>
       <c r="G18">
-        <v>163846</v>
+        <v>54990</v>
       </c>
       <c r="H18">
-        <v>173747</v>
+        <v>170063</v>
       </c>
       <c r="I18">
         <v>147568</v>
@@ -1724,7 +1727,7 @@
         <v>100000</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>113400</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1739,7 +1742,7 @@
         <v>140</v>
       </c>
       <c r="P18" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1750,31 +1753,31 @@
         <v>95</v>
       </c>
       <c r="C19">
-        <v>61676</v>
+        <v>62581</v>
       </c>
       <c r="D19">
-        <v>61.68</v>
+        <v>62.58</v>
       </c>
       <c r="E19">
         <v>-0.28</v>
       </c>
       <c r="F19">
-        <v>161676</v>
+        <v>162581</v>
       </c>
       <c r="G19">
-        <v>53445</v>
+        <v>109301</v>
       </c>
       <c r="H19">
-        <v>162970</v>
+        <v>162214</v>
       </c>
       <c r="I19">
-        <v>123187</v>
+        <v>144871</v>
       </c>
       <c r="J19">
         <v>100000</v>
       </c>
       <c r="K19">
-        <v>108231</v>
+        <v>53280</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1786,10 +1789,10 @@
         <v>0.01</v>
       </c>
       <c r="O19" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P19" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1800,31 +1803,31 @@
         <v>96</v>
       </c>
       <c r="C20">
-        <v>61365</v>
+        <v>61998</v>
       </c>
       <c r="D20">
-        <v>61.37</v>
+        <v>62</v>
       </c>
       <c r="E20">
-        <v>0.63</v>
+        <v>3.6</v>
       </c>
       <c r="F20">
-        <v>161365</v>
+        <v>161998</v>
       </c>
       <c r="G20">
-        <v>56617</v>
+        <v>106750</v>
       </c>
       <c r="H20">
-        <v>165496</v>
+        <v>159212</v>
       </c>
       <c r="I20">
-        <v>144871</v>
+        <v>156261</v>
       </c>
       <c r="J20">
         <v>100000</v>
       </c>
       <c r="K20">
-        <v>104748</v>
+        <v>55248</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1836,10 +1839,10 @@
         <v>0.01</v>
       </c>
       <c r="O20" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P20" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1850,31 +1853,31 @@
         <v>97</v>
       </c>
       <c r="C21">
-        <v>59550</v>
+        <v>59904</v>
       </c>
       <c r="D21">
-        <v>59.55</v>
+        <v>59.9</v>
       </c>
       <c r="E21">
-        <v>1.34</v>
+        <v>-0.46</v>
       </c>
       <c r="F21">
-        <v>159550</v>
+        <v>159904</v>
       </c>
       <c r="G21">
-        <v>864</v>
+        <v>52965</v>
       </c>
       <c r="H21">
-        <v>149637</v>
+        <v>163580</v>
       </c>
       <c r="I21">
-        <v>167111</v>
+        <v>128914</v>
       </c>
       <c r="J21">
         <v>100000</v>
       </c>
       <c r="K21">
-        <v>158686</v>
+        <v>106939</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1886,10 +1889,10 @@
         <v>0.01</v>
       </c>
       <c r="O21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P21" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1900,31 +1903,31 @@
         <v>98</v>
       </c>
       <c r="C22">
-        <v>59489</v>
+        <v>54048</v>
       </c>
       <c r="D22">
-        <v>59.49</v>
+        <v>54.05</v>
       </c>
       <c r="E22">
-        <v>1.26</v>
+        <v>2.58</v>
       </c>
       <c r="F22">
-        <v>159489</v>
+        <v>154048</v>
       </c>
       <c r="G22">
-        <v>815</v>
+        <v>198</v>
       </c>
       <c r="H22">
-        <v>158493</v>
+        <v>137476</v>
       </c>
       <c r="I22">
-        <v>156261</v>
+        <v>114572</v>
       </c>
       <c r="J22">
         <v>100000</v>
       </c>
       <c r="K22">
-        <v>158674</v>
+        <v>153850</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1936,10 +1939,10 @@
         <v>0.01</v>
       </c>
       <c r="O22" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P22" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1950,31 +1953,31 @@
         <v>99</v>
       </c>
       <c r="C23">
-        <v>48546</v>
+        <v>49067</v>
       </c>
       <c r="D23">
-        <v>48.55</v>
+        <v>49.07</v>
       </c>
       <c r="E23">
-        <v>-1.4</v>
+        <v>1.09</v>
       </c>
       <c r="F23">
-        <v>148546</v>
+        <v>149067</v>
       </c>
       <c r="G23">
-        <v>466</v>
+        <v>111</v>
       </c>
       <c r="H23">
-        <v>144548</v>
+        <v>144374</v>
       </c>
       <c r="I23">
-        <v>128914</v>
+        <v>167111</v>
       </c>
       <c r="J23">
         <v>100000</v>
       </c>
       <c r="K23">
-        <v>148080</v>
+        <v>148956</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1986,10 +1989,10 @@
         <v>0.01</v>
       </c>
       <c r="O23" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="P23" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -2000,31 +2003,31 @@
         <v>100</v>
       </c>
       <c r="C24">
-        <v>48499</v>
+        <v>44472</v>
       </c>
       <c r="D24">
-        <v>48.5</v>
+        <v>44.47</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>-2.25</v>
       </c>
       <c r="F24">
-        <v>148499</v>
+        <v>144472</v>
       </c>
       <c r="G24">
-        <v>148499</v>
+        <v>252</v>
       </c>
       <c r="H24">
-        <v>150715</v>
+        <v>148024</v>
       </c>
       <c r="I24">
-        <v>138632</v>
+        <v>128730</v>
       </c>
       <c r="J24">
         <v>100000</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>144220</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2036,10 +2039,10 @@
         <v>0.01</v>
       </c>
       <c r="O24" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P24" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -2050,31 +2053,31 @@
         <v>101</v>
       </c>
       <c r="C25">
-        <v>45915</v>
+        <v>43788</v>
       </c>
       <c r="D25">
-        <v>45.91</v>
+        <v>43.79</v>
       </c>
       <c r="E25">
-        <v>3.14</v>
+        <v>0.32</v>
       </c>
       <c r="F25">
-        <v>145915</v>
+        <v>143788</v>
       </c>
       <c r="G25">
-        <v>46732</v>
+        <v>1772</v>
       </c>
       <c r="H25">
-        <v>139386</v>
+        <v>154989</v>
       </c>
       <c r="I25">
-        <v>122195</v>
+        <v>170464</v>
       </c>
       <c r="J25">
         <v>100000</v>
       </c>
       <c r="K25">
-        <v>99183</v>
+        <v>142016</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2086,10 +2089,10 @@
         <v>0.01</v>
       </c>
       <c r="O25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P25" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -2100,22 +2103,22 @@
         <v>102</v>
       </c>
       <c r="C26">
-        <v>41323</v>
+        <v>43724</v>
       </c>
       <c r="D26">
-        <v>41.32</v>
+        <v>43.72</v>
       </c>
       <c r="E26">
-        <v>3.45</v>
+        <v>-0.29</v>
       </c>
       <c r="F26">
-        <v>141323</v>
+        <v>143724</v>
       </c>
       <c r="G26">
-        <v>91878</v>
+        <v>95562</v>
       </c>
       <c r="H26">
-        <v>137381</v>
+        <v>144921</v>
       </c>
       <c r="I26">
         <v>84839</v>
@@ -2124,7 +2127,7 @@
         <v>100000</v>
       </c>
       <c r="K26">
-        <v>49445</v>
+        <v>48162</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -2136,10 +2139,10 @@
         <v>0.01</v>
       </c>
       <c r="O26" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="P26" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -2150,31 +2153,31 @@
         <v>103</v>
       </c>
       <c r="C27">
-        <v>39659</v>
+        <v>43384</v>
       </c>
       <c r="D27">
-        <v>39.66</v>
+        <v>43.38</v>
       </c>
       <c r="E27">
-        <v>-0.31</v>
+        <v>-1.13</v>
       </c>
       <c r="F27">
-        <v>139659</v>
+        <v>143384</v>
       </c>
       <c r="G27">
-        <v>94022</v>
+        <v>48222</v>
       </c>
       <c r="H27">
-        <v>134820</v>
+        <v>145215</v>
       </c>
       <c r="I27">
-        <v>114572</v>
+        <v>122195</v>
       </c>
       <c r="J27">
         <v>100000</v>
       </c>
       <c r="K27">
-        <v>45637</v>
+        <v>95162</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -2189,7 +2192,7 @@
         <v>140</v>
       </c>
       <c r="P27" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -2200,31 +2203,31 @@
         <v>104</v>
       </c>
       <c r="C28">
-        <v>38310</v>
+        <v>43149</v>
       </c>
       <c r="D28">
-        <v>38.31</v>
+        <v>43.15</v>
       </c>
       <c r="E28">
-        <v>2.19</v>
+        <v>-0.24</v>
       </c>
       <c r="F28">
-        <v>138310</v>
+        <v>143149</v>
       </c>
       <c r="G28">
-        <v>43046</v>
+        <v>48567</v>
       </c>
       <c r="H28">
-        <v>133598</v>
+        <v>142154</v>
       </c>
       <c r="I28">
-        <v>128730</v>
+        <v>135348</v>
       </c>
       <c r="J28">
         <v>100000</v>
       </c>
       <c r="K28">
-        <v>95264</v>
+        <v>94582</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2236,10 +2239,10 @@
         <v>0.01</v>
       </c>
       <c r="O28" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P28" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2250,25 +2253,25 @@
         <v>105</v>
       </c>
       <c r="C29">
-        <v>37896</v>
+        <v>42102</v>
       </c>
       <c r="D29">
-        <v>37.9</v>
+        <v>42.1</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>137896</v>
+        <v>142102</v>
       </c>
       <c r="G29">
-        <v>137896</v>
+        <v>142102</v>
       </c>
       <c r="H29">
-        <v>139047</v>
+        <v>141961</v>
       </c>
       <c r="I29">
-        <v>135348</v>
+        <v>138632</v>
       </c>
       <c r="J29">
         <v>100000</v>
@@ -2286,10 +2289,10 @@
         <v>0.01</v>
       </c>
       <c r="O29" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P29" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2300,22 +2303,22 @@
         <v>106</v>
       </c>
       <c r="C30">
-        <v>37016</v>
+        <v>35643</v>
       </c>
       <c r="D30">
-        <v>37.02</v>
+        <v>35.64</v>
       </c>
       <c r="E30">
-        <v>2.96</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>137016</v>
+        <v>135643</v>
       </c>
       <c r="G30">
-        <v>5157</v>
+        <v>135643</v>
       </c>
       <c r="H30">
-        <v>129608</v>
+        <v>136010</v>
       </c>
       <c r="I30">
         <v>123786</v>
@@ -2324,7 +2327,7 @@
         <v>100000</v>
       </c>
       <c r="K30">
-        <v>131859</v>
+        <v>0</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -2336,10 +2339,10 @@
         <v>0.01</v>
       </c>
       <c r="O30" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P30" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2350,31 +2353,31 @@
         <v>107</v>
       </c>
       <c r="C31">
-        <v>33541</v>
+        <v>35370</v>
       </c>
       <c r="D31">
-        <v>33.54</v>
+        <v>35.37</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>-0.72</v>
       </c>
       <c r="F31">
-        <v>133541</v>
+        <v>135370</v>
       </c>
       <c r="G31">
-        <v>133541</v>
+        <v>91051</v>
       </c>
       <c r="H31">
-        <v>138979</v>
+        <v>135252</v>
       </c>
       <c r="I31">
-        <v>138297</v>
+        <v>97511</v>
       </c>
       <c r="J31">
         <v>100000</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>44319</v>
       </c>
       <c r="L31">
         <v>0</v>
@@ -2389,7 +2392,7 @@
         <v>140</v>
       </c>
       <c r="P31" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2400,31 +2403,31 @@
         <v>108</v>
       </c>
       <c r="C32">
-        <v>33431</v>
+        <v>35368</v>
       </c>
       <c r="D32">
-        <v>33.43</v>
+        <v>35.37</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>-1.08</v>
       </c>
       <c r="F32">
-        <v>133431</v>
+        <v>135368</v>
       </c>
       <c r="G32">
-        <v>133431</v>
+        <v>89990</v>
       </c>
       <c r="H32">
-        <v>134706</v>
+        <v>134068</v>
       </c>
       <c r="I32">
-        <v>129727</v>
+        <v>120602</v>
       </c>
       <c r="J32">
         <v>100000</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>45378</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -2439,7 +2442,7 @@
         <v>140</v>
       </c>
       <c r="P32" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2450,31 +2453,31 @@
         <v>109</v>
       </c>
       <c r="C33">
-        <v>31999</v>
+        <v>32480</v>
       </c>
       <c r="D33">
-        <v>32</v>
+        <v>32.48</v>
       </c>
       <c r="E33">
-        <v>3.46</v>
+        <v>-1.35</v>
       </c>
       <c r="F33">
-        <v>131999</v>
+        <v>132480</v>
       </c>
       <c r="G33">
-        <v>42806</v>
+        <v>591</v>
       </c>
       <c r="H33">
-        <v>132209</v>
+        <v>134288</v>
       </c>
       <c r="I33">
-        <v>120602</v>
+        <v>129727</v>
       </c>
       <c r="J33">
         <v>100000</v>
       </c>
       <c r="K33">
-        <v>89193</v>
+        <v>131889</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -2486,10 +2489,10 @@
         <v>0.01</v>
       </c>
       <c r="O33" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P33" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2500,31 +2503,31 @@
         <v>110</v>
       </c>
       <c r="C34">
-        <v>26828</v>
+        <v>29472</v>
       </c>
       <c r="D34">
-        <v>26.83</v>
+        <v>29.47</v>
       </c>
       <c r="E34">
-        <v>2.35</v>
+        <v>-1.92</v>
       </c>
       <c r="F34">
-        <v>126828</v>
+        <v>129472</v>
       </c>
       <c r="G34">
-        <v>42901</v>
+        <v>2614</v>
       </c>
       <c r="H34">
-        <v>112369</v>
+        <v>128841</v>
       </c>
       <c r="I34">
-        <v>92270</v>
+        <v>114794</v>
       </c>
       <c r="J34">
         <v>100000</v>
       </c>
       <c r="K34">
-        <v>83927</v>
+        <v>126858</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -2536,10 +2539,10 @@
         <v>0.01</v>
       </c>
       <c r="O34" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P34" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2550,31 +2553,31 @@
         <v>111</v>
       </c>
       <c r="C35">
-        <v>22236</v>
+        <v>24289</v>
       </c>
       <c r="D35">
-        <v>22.24</v>
+        <v>24.29</v>
       </c>
       <c r="E35">
-        <v>0.79</v>
+        <v>1.42</v>
       </c>
       <c r="F35">
-        <v>122236</v>
+        <v>124289</v>
       </c>
       <c r="G35">
-        <v>393</v>
+        <v>82877</v>
       </c>
       <c r="H35">
-        <v>124275</v>
+        <v>127778</v>
       </c>
       <c r="I35">
-        <v>114794</v>
+        <v>92270</v>
       </c>
       <c r="J35">
         <v>100000</v>
       </c>
       <c r="K35">
-        <v>121843</v>
+        <v>41412</v>
       </c>
       <c r="L35">
         <v>0</v>
@@ -2589,7 +2592,7 @@
         <v>141</v>
       </c>
       <c r="P35" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2600,31 +2603,31 @@
         <v>112</v>
       </c>
       <c r="C36">
-        <v>21155</v>
+        <v>23625</v>
       </c>
       <c r="D36">
-        <v>21.15</v>
+        <v>23.62</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>-1.77</v>
       </c>
       <c r="F36">
-        <v>121155</v>
+        <v>123625</v>
       </c>
       <c r="G36">
-        <v>121155</v>
+        <v>84677</v>
       </c>
       <c r="H36">
-        <v>122309</v>
+        <v>127659</v>
       </c>
       <c r="I36">
-        <v>124151</v>
+        <v>109590</v>
       </c>
       <c r="J36">
         <v>100000</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>38948</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -2636,10 +2639,10 @@
         <v>0.01</v>
       </c>
       <c r="O36" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P36" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2650,31 +2653,31 @@
         <v>113</v>
       </c>
       <c r="C37">
-        <v>20898</v>
+        <v>23232</v>
       </c>
       <c r="D37">
-        <v>20.9</v>
+        <v>23.23</v>
       </c>
       <c r="E37">
-        <v>-0.23</v>
+        <v>-2.54</v>
       </c>
       <c r="F37">
-        <v>120898</v>
+        <v>123232</v>
       </c>
       <c r="G37">
-        <v>43393</v>
+        <v>41730</v>
       </c>
       <c r="H37">
-        <v>115223</v>
+        <v>127650</v>
       </c>
       <c r="I37">
-        <v>97511</v>
+        <v>138297</v>
       </c>
       <c r="J37">
         <v>100000</v>
       </c>
       <c r="K37">
-        <v>77505</v>
+        <v>81502</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -2689,7 +2692,7 @@
         <v>140</v>
       </c>
       <c r="P37" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2700,31 +2703,31 @@
         <v>114</v>
       </c>
       <c r="C38">
-        <v>20153</v>
+        <v>21259</v>
       </c>
       <c r="D38">
-        <v>20.15</v>
+        <v>21.26</v>
       </c>
       <c r="E38">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>120153</v>
+        <v>121259</v>
       </c>
       <c r="G38">
-        <v>79658</v>
+        <v>121259</v>
       </c>
       <c r="H38">
-        <v>120272</v>
+        <v>120980</v>
       </c>
       <c r="I38">
-        <v>109590</v>
+        <v>124151</v>
       </c>
       <c r="J38">
         <v>100000</v>
       </c>
       <c r="K38">
-        <v>40495</v>
+        <v>0</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -2739,7 +2742,7 @@
         <v>140</v>
       </c>
       <c r="P38" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2750,31 +2753,31 @@
         <v>115</v>
       </c>
       <c r="C39">
-        <v>20146</v>
+        <v>20471</v>
       </c>
       <c r="D39">
-        <v>20.15</v>
+        <v>20.47</v>
       </c>
       <c r="E39">
-        <v>9.66</v>
+        <v>-0.8100000000000001</v>
       </c>
       <c r="F39">
-        <v>120146</v>
+        <v>120471</v>
       </c>
       <c r="G39">
-        <v>44802</v>
+        <v>81151</v>
       </c>
       <c r="H39">
-        <v>111944</v>
+        <v>121290</v>
       </c>
       <c r="I39">
-        <v>92263</v>
+        <v>104808</v>
       </c>
       <c r="J39">
         <v>100000</v>
       </c>
       <c r="K39">
-        <v>75344</v>
+        <v>39320</v>
       </c>
       <c r="L39">
         <v>0</v>
@@ -2786,10 +2789,10 @@
         <v>0.01</v>
       </c>
       <c r="O39" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="P39" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2800,31 +2803,31 @@
         <v>116</v>
       </c>
       <c r="C40">
-        <v>19108</v>
+        <v>13704</v>
       </c>
       <c r="D40">
-        <v>19.11</v>
+        <v>13.7</v>
       </c>
       <c r="E40">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>119108</v>
+        <v>113704</v>
       </c>
       <c r="G40">
-        <v>798</v>
+        <v>113704</v>
       </c>
       <c r="H40">
-        <v>117707</v>
+        <v>113380</v>
       </c>
       <c r="I40">
-        <v>104808</v>
+        <v>105141</v>
       </c>
       <c r="J40">
         <v>100000</v>
       </c>
       <c r="K40">
-        <v>118310</v>
+        <v>0</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -2839,7 +2842,7 @@
         <v>143</v>
       </c>
       <c r="P40" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2850,22 +2853,22 @@
         <v>117</v>
       </c>
       <c r="C41">
-        <v>11421</v>
+        <v>12737</v>
       </c>
       <c r="D41">
-        <v>11.42</v>
+        <v>12.74</v>
       </c>
       <c r="E41">
-        <v>0.37</v>
+        <v>-1.96</v>
       </c>
       <c r="F41">
-        <v>111421</v>
+        <v>112737</v>
       </c>
       <c r="G41">
-        <v>38143</v>
+        <v>36864</v>
       </c>
       <c r="H41">
-        <v>110404</v>
+        <v>109002</v>
       </c>
       <c r="I41">
         <v>117660</v>
@@ -2874,7 +2877,7 @@
         <v>100000</v>
       </c>
       <c r="K41">
-        <v>73278</v>
+        <v>75873</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -2889,7 +2892,7 @@
         <v>140</v>
       </c>
       <c r="P41" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2900,31 +2903,31 @@
         <v>118</v>
       </c>
       <c r="C42">
-        <v>10116</v>
+        <v>11115</v>
       </c>
       <c r="D42">
-        <v>10.12</v>
+        <v>11.12</v>
       </c>
       <c r="E42">
-        <v>-2.01</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>110116</v>
+        <v>111115</v>
       </c>
       <c r="G42">
-        <v>39670</v>
+        <v>111115</v>
       </c>
       <c r="H42">
-        <v>111611</v>
+        <v>116583</v>
       </c>
       <c r="I42">
-        <v>105141</v>
+        <v>92263</v>
       </c>
       <c r="J42">
         <v>100000</v>
       </c>
       <c r="K42">
-        <v>70446</v>
+        <v>0</v>
       </c>
       <c r="L42">
         <v>0</v>
@@ -2939,7 +2942,7 @@
         <v>140</v>
       </c>
       <c r="P42" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2950,31 +2953,31 @@
         <v>119</v>
       </c>
       <c r="C43">
-        <v>9067</v>
+        <v>10339</v>
       </c>
       <c r="D43">
-        <v>9.07</v>
+        <v>10.34</v>
       </c>
       <c r="E43">
-        <v>0.5</v>
+        <v>-1.24</v>
       </c>
       <c r="F43">
-        <v>109067</v>
+        <v>110339</v>
       </c>
       <c r="G43">
-        <v>35469</v>
+        <v>620</v>
       </c>
       <c r="H43">
-        <v>110527</v>
+        <v>106437</v>
       </c>
       <c r="I43">
-        <v>94853</v>
+        <v>66850</v>
       </c>
       <c r="J43">
         <v>100000</v>
       </c>
       <c r="K43">
-        <v>73598</v>
+        <v>109719</v>
       </c>
       <c r="L43">
         <v>0</v>
@@ -2989,7 +2992,7 @@
         <v>140</v>
       </c>
       <c r="P43" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -3000,31 +3003,31 @@
         <v>120</v>
       </c>
       <c r="C44">
-        <v>8320</v>
+        <v>9193</v>
       </c>
       <c r="D44">
-        <v>8.32</v>
+        <v>9.19</v>
       </c>
       <c r="E44">
-        <v>-0.85</v>
+        <v>5.1</v>
       </c>
       <c r="F44">
-        <v>108320</v>
+        <v>109193</v>
       </c>
       <c r="G44">
-        <v>84950</v>
+        <v>72617</v>
       </c>
       <c r="H44">
-        <v>111815</v>
+        <v>105853</v>
       </c>
       <c r="I44">
-        <v>78891</v>
+        <v>94853</v>
       </c>
       <c r="J44">
         <v>100000</v>
       </c>
       <c r="K44">
-        <v>23370</v>
+        <v>36576</v>
       </c>
       <c r="L44">
         <v>0</v>
@@ -3036,10 +3039,10 @@
         <v>0.01</v>
       </c>
       <c r="O44" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P44" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -3050,22 +3053,22 @@
         <v>121</v>
       </c>
       <c r="C45">
-        <v>7726</v>
+        <v>8705</v>
       </c>
       <c r="D45">
-        <v>7.73</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="E45">
-        <v>1.63</v>
+        <v>-1.63</v>
       </c>
       <c r="F45">
-        <v>107726</v>
+        <v>108705</v>
       </c>
       <c r="G45">
-        <v>71758</v>
+        <v>72405</v>
       </c>
       <c r="H45">
-        <v>106833</v>
+        <v>110025</v>
       </c>
       <c r="I45">
         <v>90564</v>
@@ -3074,7 +3077,7 @@
         <v>100000</v>
       </c>
       <c r="K45">
-        <v>35968</v>
+        <v>36300</v>
       </c>
       <c r="L45">
         <v>0</v>
@@ -3089,7 +3092,7 @@
         <v>140</v>
       </c>
       <c r="P45" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -3100,31 +3103,31 @@
         <v>122</v>
       </c>
       <c r="C46">
-        <v>5322</v>
+        <v>3513</v>
       </c>
       <c r="D46">
-        <v>5.32</v>
+        <v>3.51</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>3.32</v>
       </c>
       <c r="F46">
-        <v>105322</v>
+        <v>103513</v>
       </c>
       <c r="G46">
-        <v>105322</v>
+        <v>67437</v>
       </c>
       <c r="H46">
-        <v>102537</v>
+        <v>104159</v>
       </c>
       <c r="I46">
-        <v>106999</v>
+        <v>97279</v>
       </c>
       <c r="J46">
         <v>100000</v>
       </c>
       <c r="K46">
-        <v>0</v>
+        <v>36076</v>
       </c>
       <c r="L46">
         <v>0</v>
@@ -3139,7 +3142,7 @@
         <v>140</v>
       </c>
       <c r="P46" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -3150,31 +3153,31 @@
         <v>123</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>371</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>0.37</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="F47">
-        <v>100000</v>
+        <v>100371</v>
       </c>
       <c r="G47">
-        <v>100000</v>
+        <v>4496</v>
       </c>
       <c r="H47">
-        <v>100000</v>
+        <v>95865</v>
       </c>
       <c r="I47">
-        <v>100000</v>
+        <v>83837</v>
       </c>
       <c r="J47">
         <v>100000</v>
       </c>
       <c r="K47">
-        <v>0</v>
+        <v>95875</v>
       </c>
       <c r="L47">
         <v>0</v>
@@ -3186,10 +3189,10 @@
         <v>0.01</v>
       </c>
       <c r="O47" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="P47" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -3236,10 +3239,10 @@
         <v>0.01</v>
       </c>
       <c r="O48" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P48" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -3336,10 +3339,10 @@
         <v>0.01</v>
       </c>
       <c r="O50" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P50" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -3386,10 +3389,10 @@
         <v>0.01</v>
       </c>
       <c r="O51" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P51" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -3436,10 +3439,10 @@
         <v>0.01</v>
       </c>
       <c r="O52" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P52" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -3450,25 +3453,25 @@
         <v>129</v>
       </c>
       <c r="C53">
-        <v>-1071</v>
+        <v>0</v>
       </c>
       <c r="D53">
-        <v>-1.07</v>
+        <v>0</v>
       </c>
       <c r="E53">
         <v>0</v>
       </c>
       <c r="F53">
-        <v>98929</v>
+        <v>100000</v>
       </c>
       <c r="G53">
-        <v>98929</v>
+        <v>100000</v>
       </c>
       <c r="H53">
-        <v>105803</v>
+        <v>100000</v>
       </c>
       <c r="I53">
-        <v>97279</v>
+        <v>100000</v>
       </c>
       <c r="J53">
         <v>100000</v>
@@ -3486,10 +3489,10 @@
         <v>0.01</v>
       </c>
       <c r="O53" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="P53" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -3500,31 +3503,31 @@
         <v>130</v>
       </c>
       <c r="C54">
-        <v>-2625</v>
+        <v>-3052</v>
       </c>
       <c r="D54">
-        <v>-2.62</v>
+        <v>-3.05</v>
       </c>
       <c r="E54">
-        <v>-0.17</v>
+        <v>-3.43</v>
       </c>
       <c r="F54">
-        <v>97375</v>
+        <v>96948</v>
       </c>
       <c r="G54">
-        <v>1804</v>
+        <v>60314</v>
       </c>
       <c r="H54">
-        <v>95644</v>
+        <v>98809</v>
       </c>
       <c r="I54">
-        <v>94112</v>
+        <v>106999</v>
       </c>
       <c r="J54">
         <v>100000</v>
       </c>
       <c r="K54">
-        <v>95571</v>
+        <v>36634</v>
       </c>
       <c r="L54">
         <v>0</v>
@@ -3536,10 +3539,10 @@
         <v>0.01</v>
       </c>
       <c r="O54" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="P54" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -3550,31 +3553,31 @@
         <v>131</v>
       </c>
       <c r="C55">
-        <v>-3883</v>
+        <v>-3333</v>
       </c>
       <c r="D55">
-        <v>-3.88</v>
+        <v>-3.33</v>
       </c>
       <c r="E55">
-        <v>-1.28</v>
+        <v>-0.77</v>
       </c>
       <c r="F55">
-        <v>96117</v>
+        <v>96667</v>
       </c>
       <c r="G55">
-        <v>31452</v>
+        <v>35532</v>
       </c>
       <c r="H55">
-        <v>80772</v>
+        <v>100689</v>
       </c>
       <c r="I55">
-        <v>66850</v>
+        <v>78891</v>
       </c>
       <c r="J55">
         <v>100000</v>
       </c>
       <c r="K55">
-        <v>64665</v>
+        <v>61135</v>
       </c>
       <c r="L55">
         <v>0</v>
@@ -3586,10 +3589,10 @@
         <v>0.01</v>
       </c>
       <c r="O55" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P55" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -3600,25 +3603,25 @@
         <v>132</v>
       </c>
       <c r="C56">
-        <v>-9157</v>
+        <v>-7350</v>
       </c>
       <c r="D56">
-        <v>-9.16</v>
+        <v>-7.35</v>
       </c>
       <c r="E56">
         <v>0</v>
       </c>
       <c r="F56">
-        <v>90843</v>
+        <v>92650</v>
       </c>
       <c r="G56">
-        <v>90843</v>
+        <v>92650</v>
       </c>
       <c r="H56">
-        <v>90890</v>
+        <v>94788</v>
       </c>
       <c r="I56">
-        <v>83073</v>
+        <v>94112</v>
       </c>
       <c r="J56">
         <v>100000</v>
@@ -3636,10 +3639,10 @@
         <v>0.01</v>
       </c>
       <c r="O56" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P56" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -3650,22 +3653,22 @@
         <v>133</v>
       </c>
       <c r="C57">
-        <v>-11405</v>
+        <v>-9015</v>
       </c>
       <c r="D57">
-        <v>-11.4</v>
+        <v>-9.01</v>
       </c>
       <c r="E57">
-        <v>2.28</v>
+        <v>-0.48</v>
       </c>
       <c r="F57">
-        <v>88595</v>
+        <v>90985</v>
       </c>
       <c r="G57">
-        <v>58355</v>
+        <v>181</v>
       </c>
       <c r="H57">
-        <v>86702</v>
+        <v>92491</v>
       </c>
       <c r="I57">
         <v>86671</v>
@@ -3674,7 +3677,7 @@
         <v>100000</v>
       </c>
       <c r="K57">
-        <v>30240</v>
+        <v>90804</v>
       </c>
       <c r="L57">
         <v>0</v>
@@ -3686,10 +3689,10 @@
         <v>0.01</v>
       </c>
       <c r="O57" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P57" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -3700,31 +3703,31 @@
         <v>134</v>
       </c>
       <c r="C58">
-        <v>-14438</v>
+        <v>-10836</v>
       </c>
       <c r="D58">
-        <v>-14.44</v>
+        <v>-10.84</v>
       </c>
       <c r="E58">
-        <v>0.63</v>
+        <v>-1.01</v>
       </c>
       <c r="F58">
-        <v>85562</v>
+        <v>89164</v>
       </c>
       <c r="G58">
-        <v>58548</v>
+        <v>58924</v>
       </c>
       <c r="H58">
-        <v>81756</v>
+        <v>90491</v>
       </c>
       <c r="I58">
-        <v>83837</v>
+        <v>83073</v>
       </c>
       <c r="J58">
         <v>100000</v>
       </c>
       <c r="K58">
-        <v>27014</v>
+        <v>30240</v>
       </c>
       <c r="L58">
         <v>0</v>
@@ -3739,7 +3742,7 @@
         <v>140</v>
       </c>
       <c r="P58" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -3750,22 +3753,22 @@
         <v>135</v>
       </c>
       <c r="C59">
-        <v>-20500</v>
+        <v>-19259</v>
       </c>
       <c r="D59">
-        <v>-20.5</v>
+        <v>-19.26</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>-2.51</v>
       </c>
       <c r="F59">
-        <v>79500</v>
+        <v>80741</v>
       </c>
       <c r="G59">
-        <v>79500</v>
+        <v>12519</v>
       </c>
       <c r="H59">
-        <v>80550</v>
+        <v>79503</v>
       </c>
       <c r="I59">
         <v>81002</v>
@@ -3774,7 +3777,7 @@
         <v>100000</v>
       </c>
       <c r="K59">
-        <v>0</v>
+        <v>68222</v>
       </c>
       <c r="L59">
         <v>0</v>
@@ -3789,7 +3792,7 @@
         <v>142</v>
       </c>
       <c r="P59" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -3800,22 +3803,22 @@
         <v>136</v>
       </c>
       <c r="C60">
-        <v>-20603</v>
+        <v>-23267</v>
       </c>
       <c r="D60">
-        <v>-20.6</v>
+        <v>-23.27</v>
       </c>
       <c r="E60">
-        <v>0.57</v>
+        <v>2.73</v>
       </c>
       <c r="F60">
-        <v>79397</v>
+        <v>76733</v>
       </c>
       <c r="G60">
-        <v>26641</v>
+        <v>48831</v>
       </c>
       <c r="H60">
-        <v>77869</v>
+        <v>77633</v>
       </c>
       <c r="I60">
         <v>77843</v>
@@ -3824,7 +3827,7 @@
         <v>100000</v>
       </c>
       <c r="K60">
-        <v>52756</v>
+        <v>27902</v>
       </c>
       <c r="L60">
         <v>0</v>
@@ -3836,7 +3839,7 @@
         <v>0.01</v>
       </c>
       <c r="O60" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P60" t="s">
         <v>147</v>
@@ -3850,22 +3853,22 @@
         <v>137</v>
       </c>
       <c r="C61">
-        <v>-22362</v>
+        <v>-28560</v>
       </c>
       <c r="D61">
-        <v>-22.36</v>
+        <v>-28.56</v>
       </c>
       <c r="E61">
-        <v>2.47</v>
+        <v>-0.55</v>
       </c>
       <c r="F61">
-        <v>77638</v>
+        <v>71440</v>
       </c>
       <c r="G61">
-        <v>5483</v>
+        <v>889</v>
       </c>
       <c r="H61">
-        <v>76963</v>
+        <v>73333</v>
       </c>
       <c r="I61">
         <v>68611</v>
@@ -3874,7 +3877,7 @@
         <v>100000</v>
       </c>
       <c r="K61">
-        <v>72155</v>
+        <v>70551</v>
       </c>
       <c r="L61">
         <v>0</v>
@@ -3889,7 +3892,7 @@
         <v>140</v>
       </c>
       <c r="P61" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -3900,22 +3903,22 @@
         <v>138</v>
       </c>
       <c r="C62">
-        <v>-42249</v>
+        <v>-34123</v>
       </c>
       <c r="D62">
-        <v>-42.25</v>
+        <v>-34.12</v>
       </c>
       <c r="E62">
-        <v>-0.41</v>
+        <v>2.6</v>
       </c>
       <c r="F62">
-        <v>57751</v>
+        <v>65877</v>
       </c>
       <c r="G62">
-        <v>580</v>
+        <v>19047</v>
       </c>
       <c r="H62">
-        <v>57381</v>
+        <v>62838</v>
       </c>
       <c r="I62">
         <v>54433</v>
@@ -3924,7 +3927,7 @@
         <v>100000</v>
       </c>
       <c r="K62">
-        <v>57171</v>
+        <v>46830</v>
       </c>
       <c r="L62">
         <v>0</v>
@@ -3939,7 +3942,7 @@
         <v>140</v>
       </c>
       <c r="P62" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -3950,22 +3953,22 @@
         <v>139</v>
       </c>
       <c r="C63">
-        <v>-42976</v>
+        <v>-43358</v>
       </c>
       <c r="D63">
-        <v>-42.98</v>
+        <v>-43.36</v>
       </c>
       <c r="E63">
-        <v>-2.65</v>
+        <v>1.12</v>
       </c>
       <c r="F63">
-        <v>57024</v>
+        <v>56642</v>
       </c>
       <c r="G63">
-        <v>21024</v>
+        <v>27867</v>
       </c>
       <c r="H63">
-        <v>59912</v>
+        <v>57673</v>
       </c>
       <c r="I63">
         <v>50494</v>
@@ -3974,7 +3977,7 @@
         <v>100000</v>
       </c>
       <c r="K63">
-        <v>36000</v>
+        <v>28775</v>
       </c>
       <c r="L63">
         <v>0</v>
@@ -3986,10 +3989,10 @@
         <v>0.01</v>
       </c>
       <c r="O63" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P63" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
